--- a/AudioMapperUSB-top.xlsx
+++ b/AudioMapperUSB-top.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="154">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">CP_1206_HandSoldering</t>
   </si>
   <si>
-    <t xml:space="preserve">top</t>
+    <t xml:space="preserve"> top</t>
   </si>
   <si>
     <t xml:space="preserve">C2</t>
@@ -157,9 +157,6 @@
     <t xml:space="preserve">C34</t>
   </si>
   <si>
-    <t xml:space="preserve">C35</t>
-  </si>
-  <si>
     <t xml:space="preserve">C36</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
     <t xml:space="preserve">C39</t>
   </si>
   <si>
+    <t xml:space="preserve">100 pF</t>
+  </si>
+  <si>
     <t xml:space="preserve">C40</t>
   </si>
   <si>
@@ -190,6 +190,12 @@
     <t xml:space="preserve">C44</t>
   </si>
   <si>
+    <t xml:space="preserve">C47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C48</t>
+  </si>
+  <si>
     <t xml:space="preserve">D1</t>
   </si>
   <si>
@@ -220,15 +226,6 @@
     <t xml:space="preserve">SOT-23</t>
   </si>
   <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMBT3904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
     <t xml:space="preserve">R1</t>
   </si>
   <si>
@@ -298,25 +295,28 @@
     <t xml:space="preserve">R21</t>
   </si>
   <si>
-    <t xml:space="preserve">R23</t>
+    <t xml:space="preserve">R22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R26</t>
   </si>
   <si>
     <t xml:space="preserve">10k</t>
   </si>
   <si>
-    <t xml:space="preserve">R25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R26</t>
-  </si>
-  <si>
     <t xml:space="preserve">R29</t>
   </si>
   <si>
-    <t xml:space="preserve">R31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0R</t>
+    <t xml:space="preserve">R30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18k</t>
   </si>
   <si>
     <t xml:space="preserve">R32</t>
@@ -328,27 +328,21 @@
     <t xml:space="preserve">R34</t>
   </si>
   <si>
+    <t xml:space="preserve">4k7</t>
+  </si>
+  <si>
     <t xml:space="preserve">R35</t>
   </si>
   <si>
-    <t xml:space="preserve">100k</t>
-  </si>
-  <si>
     <t xml:space="preserve">R36</t>
   </si>
   <si>
-    <t xml:space="preserve">4k7</t>
-  </si>
-  <si>
     <t xml:space="preserve">R38</t>
   </si>
   <si>
     <t xml:space="preserve">R40</t>
   </si>
   <si>
-    <t xml:space="preserve">R41</t>
-  </si>
-  <si>
     <t xml:space="preserve">R42</t>
   </si>
   <si>
@@ -370,6 +364,9 @@
     <t xml:space="preserve">R52</t>
   </si>
   <si>
+    <t xml:space="preserve">22k</t>
+  </si>
+  <si>
     <t xml:space="preserve">R54</t>
   </si>
   <si>
@@ -397,15 +394,15 @@
     <t xml:space="preserve">R63</t>
   </si>
   <si>
+    <t xml:space="preserve">1k</t>
+  </si>
+  <si>
     <t xml:space="preserve">R64</t>
   </si>
   <si>
     <t xml:space="preserve">R65</t>
   </si>
   <si>
-    <t xml:space="preserve">2k2</t>
-  </si>
-  <si>
     <t xml:space="preserve">R66</t>
   </si>
   <si>
@@ -415,6 +412,12 @@
     <t xml:space="preserve">R68</t>
   </si>
   <si>
+    <t xml:space="preserve">R69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R70</t>
+  </si>
+  <si>
     <t xml:space="preserve">U1</t>
   </si>
   <si>
@@ -430,7 +433,7 @@
     <t xml:space="preserve">PCM2900</t>
   </si>
   <si>
-    <t xml:space="preserve">SSOP-28_5.3x10.2mm_Pitch0.65</t>
+    <t xml:space="preserve">SSOP-28_5.3x10.2mm_Pitch0.</t>
   </si>
   <si>
     <t xml:space="preserve">U3</t>
@@ -439,7 +442,7 @@
     <t xml:space="preserve">OPA2170</t>
   </si>
   <si>
-    <t xml:space="preserve">SOIC-8_3.9x4.9mm_Pitch1.27mm</t>
+    <t xml:space="preserve">SOIC-8_3.9x4.9mm_Pitch1.27</t>
   </si>
   <si>
     <t xml:space="preserve">U4</t>
@@ -451,13 +454,31 @@
     <t xml:space="preserve">U6</t>
   </si>
   <si>
+    <t xml:space="preserve">U7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA78M05_TO252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO-252-3_TabPin2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74HC04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOIC-14_3.9x8.7mm_Pitch1.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y1</t>
   </si>
   <si>
     <t xml:space="preserve">12 MHz</t>
   </si>
   <si>
-    <t xml:space="preserve">Crystal_SMD_3225-4pin_3.2x2.</t>
+    <t xml:space="preserve">Crystal_SMD_3225-4pin_3.2x</t>
   </si>
   <si>
     <t xml:space="preserve">## End</t>
@@ -475,7 +496,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -535,12 +555,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -561,21 +577,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D104" activeCellId="0" sqref="D104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,10 +628,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>95.5</v>
+        <v>93.98</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>-33</v>
+        <v>-32.766</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0</v>
@@ -643,7 +659,7 @@
       <c r="F3" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -666,7 +682,7 @@
       <c r="F4" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -681,15 +697,15 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>46.9</v>
+        <v>47.7</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>-49.3</v>
+        <v>-54.3</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -704,15 +720,15 @@
         <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>45.9</v>
+        <v>57.4</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>-51.8</v>
+        <v>-50.2</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -735,7 +751,7 @@
       <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -758,7 +774,7 @@
       <c r="F8" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -781,7 +797,7 @@
       <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -804,7 +820,7 @@
       <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -827,7 +843,7 @@
       <c r="F11" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -842,15 +858,15 @@
         <v>14</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>64.9</v>
+        <v>85.41</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-94</v>
+        <v>-98.24</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G12" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -873,7 +889,7 @@
       <c r="F13" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -896,7 +912,7 @@
       <c r="F14" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -911,15 +927,15 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>63.2</v>
+        <v>73.93</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-114.5</v>
+        <v>-118.97</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -934,15 +950,15 @@
         <v>14</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>-111.7</v>
+        <v>-113.8</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -957,15 +973,15 @@
         <v>9</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>91.2</v>
+        <v>108.07</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>-113.6</v>
+        <v>-110</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -980,15 +996,15 @@
         <v>14</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>88.8</v>
+        <v>105.47</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-109.5</v>
+        <v>-113.63</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1003,15 +1019,15 @@
         <v>9</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>97.3</v>
+        <v>87.73</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-116.9</v>
+        <v>-119.47</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1026,15 +1042,15 @@
         <v>14</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>71.6</v>
+        <v>99.3</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-98.7</v>
+        <v>-103.31</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1049,15 +1065,15 @@
         <v>9</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>97.1</v>
+        <v>107.31</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-99.4</v>
+        <v>-97.64</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1072,15 +1088,15 @@
         <v>14</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>75</v>
+        <v>108.04</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-105.7</v>
+        <v>-107.85</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1095,15 +1111,15 @@
         <v>14</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>52.6</v>
+        <v>63.7</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-118.6</v>
+        <v>-58.4</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1118,15 +1134,15 @@
         <v>9</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>47.1</v>
+        <v>48.8</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-124.5</v>
+        <v>-114.5</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1141,15 +1157,15 @@
         <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>40.5</v>
+        <v>56.1</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>-124.5</v>
+        <v>-114.6</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1158,21 +1174,21 @@
         <v>39</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>59.3</v>
+        <v>44.2</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>-41.9</v>
+        <v>-56.4</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1187,15 +1203,15 @@
         <v>9</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>51.1</v>
+        <v>58</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>-44.1</v>
+        <v>-45.3</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1210,15 +1226,15 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>45.3</v>
+        <v>47.4</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>-69.1</v>
+        <v>-68.5</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1227,21 +1243,21 @@
         <v>42</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>63.1</v>
+        <v>47.4</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>-71.2</v>
+        <v>-78.2</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1256,15 +1272,15 @@
         <v>14</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>66.5</v>
+        <v>76.9</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>-50.5</v>
+        <v>-51</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1279,15 +1295,15 @@
         <v>14</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>68.5</v>
+        <v>82.9</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>-70.75</v>
+        <v>-58.7</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1296,21 +1312,21 @@
         <v>45</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>75.75</v>
+        <v>79.2</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>-44</v>
+        <v>-47.2</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1319,44 +1335,44 @@
         <v>46</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>66.5</v>
+        <v>62.4</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>-44.25</v>
+        <v>-51.5</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>60.5</v>
+        <v>58.6</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>-60.7</v>
+        <v>-62.8</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1365,73 +1381,73 @@
         <v>49</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>52.4</v>
+        <v>80.7</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>-67.3</v>
+        <v>-52</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>79.9</v>
+        <v>77.8</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>-42.9</v>
+        <v>-62.6</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>74.8</v>
+        <v>61.7</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>-74.2</v>
+        <v>-117.7</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>8</v>
@@ -1440,44 +1456,44 @@
         <v>9</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>43</v>
+        <v>46.5</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>-128.5</v>
+        <v>-108.9</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>33.3</v>
+        <v>112.59</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>-117.3</v>
+        <v>-86.32</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>13</v>
@@ -1486,21 +1502,21 @@
         <v>14</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>123.4</v>
+        <v>106.5</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>-63.8</v>
+        <v>-92.25</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>13</v>
@@ -1509,130 +1525,130 @@
         <v>14</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>107.8</v>
+        <v>74.4</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>-83.1</v>
+        <v>-44.3</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>123.5</v>
+        <v>108.25</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>-42.8</v>
+        <v>-78.25</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="C43" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="D43" s="0" t="n">
-        <v>104.5</v>
+        <v>123.5</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>-46</v>
+        <v>-42.8</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="C44" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>100.1</v>
+        <v>104.5</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>-47.3</v>
+        <v>-46</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="D45" s="0" t="n">
-        <v>119</v>
+        <v>100.1</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>-49</v>
+        <v>-47.3</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="C46" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="D46" s="0" t="n">
-        <v>101.7</v>
+        <v>119</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>-74.6</v>
+        <v>-49</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1641,59 +1657,59 @@
         <v>68</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>101.7</v>
+        <v>120</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>-79.3</v>
+        <v>-35.5</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>120</v>
+        <v>112.5</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>-35.5</v>
+        <v>-42.5</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>112.5</v>
+        <v>119.5</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>-42.5</v>
@@ -1701,22 +1717,22 @@
       <c r="F49" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="C50" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>119.5</v>
+        <v>116</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>-42.5</v>
@@ -1724,7 +1740,7 @@
       <c r="F50" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1733,21 +1749,21 @@
         <v>76</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>-42.5</v>
+        <v>-54.5</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1756,44 +1772,44 @@
         <v>77</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>118</v>
+        <v>111.5</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>-54.5</v>
+        <v>-65.2</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>111.5</v>
+        <v>123.5</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>-65.2</v>
+        <v>-49</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G53" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1802,44 +1818,44 @@
         <v>80</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>123.5</v>
+        <v>73.65</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>-49</v>
+        <v>-112.43</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="C55" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>57.1</v>
+        <v>90.34</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>-109.9</v>
+        <v>-112.78</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1848,67 +1864,67 @@
         <v>83</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>84</v>
+        <v>81.95</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>-115</v>
+        <v>-116.09</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>65.8</v>
+        <v>80.58</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>-105.7</v>
+        <v>-119.42</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>90.6</v>
+        <v>88.09</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>-116.8</v>
+        <v>-101.67</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1917,21 +1933,21 @@
         <v>88</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>57.1</v>
+        <v>96.81</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>-98.6</v>
+        <v>-96.24</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G59" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1940,21 +1956,21 @@
         <v>89</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>84.2</v>
+        <v>94.22</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>-96.6</v>
+        <v>-105.1</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1963,21 +1979,21 @@
         <v>90</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>65.9</v>
+        <v>100.54</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>-101.8</v>
+        <v>-97.6</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1986,44 +2002,44 @@
         <v>91</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>90.3</v>
+        <v>54.2</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>-99.4</v>
+        <v>-49.4</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G62" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>93</v>
-      </c>
       <c r="C63" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>51</v>
+        <v>53.3</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>-112.2</v>
+        <v>-76.9</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2032,205 +2048,205 @@
         <v>94</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>58</v>
+        <v>85.75</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>-118.7</v>
+        <v>-123.08</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>93</v>
-      </c>
       <c r="C65" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>86.4</v>
+        <v>85.69</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>-120.8</v>
+        <v>-126.57</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>86.4</v>
+        <v>68.2</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>-124.4</v>
+        <v>-61.9</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>42.3</v>
+        <v>89.94</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>-113.4</v>
+        <v>-124.84</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G67" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>99.6</v>
+        <v>108.13</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>-112</v>
+        <v>-101.69</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>96</v>
+        <v>43.5</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>-102.5</v>
+        <v>-50.6</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>46.2</v>
+        <v>75.2</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>-45.8</v>
+        <v>-76.3</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G70" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="C71" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>61.4</v>
+        <v>47.7</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>-45.4</v>
+        <v>-62.1</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>57.9</v>
+        <v>62.5</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>-45.5</v>
+        <v>-48</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2239,21 +2255,21 @@
         <v>106</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>58.1</v>
+        <v>45.6</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>-53.1</v>
+        <v>-74.3</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2262,21 +2278,21 @@
         <v>107</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>44.1</v>
+        <v>49.1</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>-65</v>
+        <v>-74.2</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G74" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2285,21 +2301,21 @@
         <v>108</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>63.1</v>
+        <v>58.6</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>-66.4</v>
+        <v>-66.2</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2308,21 +2324,21 @@
         <v>109</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>61.1</v>
+        <v>89.5</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>-75</v>
+        <v>-53.1</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G76" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2331,21 +2347,21 @@
         <v>110</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>51</v>
+        <v>80.4</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>-61.5</v>
+        <v>-72.3</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2354,21 +2370,21 @@
         <v>111</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>79.1</v>
+        <v>68.2</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>-54.2</v>
+        <v>-58.6</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G78" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G78" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2377,21 +2393,21 @@
         <v>112</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>78.9</v>
+        <v>64.8</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>-70.1</v>
+        <v>-76</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G79" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2400,381 +2416,381 @@
         <v>113</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>74</v>
+        <v>80.6</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>-47.75</v>
+        <v>-49.9</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="C81" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>73.75</v>
+        <v>77.7</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>-70.75</v>
+        <v>-64.7</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>78.5</v>
+        <v>55.9</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>-48.25</v>
+        <v>-105</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>69.75</v>
+        <v>62.5</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>-61.5</v>
+        <v>-110.5</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G83" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>47.8</v>
+        <v>50.2</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>-101.5</v>
+        <v>-109.8</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G84" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G84" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>56.7</v>
+        <v>46.5</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>-123.5</v>
+        <v>-102.1</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G85" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G85" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>35.5</v>
+        <v>112.57</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>-120.5</v>
+        <v>-81.19</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>45.5</v>
+        <v>113.1</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>-96.1</v>
+        <v>-77.62</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G87" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>123.4</v>
+        <v>102.5</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>-69</v>
+        <v>-77</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G88" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G88" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>127.1</v>
+        <v>67.8</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>-63.7</v>
+        <v>-80</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G89" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>107.5</v>
+        <v>101</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>-76.8</v>
+        <v>-88.5</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G90" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G90" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>113</v>
+        <v>85.5</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>-76.3</v>
+        <v>-64.8</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G91" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>102</v>
+        <v>112.26</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>-83.2</v>
+        <v>-94.05</v>
       </c>
       <c r="F92" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>113.1</v>
+        <v>80.6</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>-79.7</v>
+        <v>-108</v>
       </c>
       <c r="F93" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>113.2</v>
+        <v>44.1</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>-83.1</v>
+        <v>-45.5</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G94" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G94" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>100.1</v>
+        <v>44.7</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>-87.2</v>
+        <v>-68.6</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G95" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G95" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>95.5</v>
+        <v>90.25</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>-38.5</v>
@@ -2782,19 +2798,19 @@
       <c r="F96" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>110</v>
@@ -2805,128 +2821,174 @@
       <c r="F97" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>84.6</v>
+        <v>100.58</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>-105.3</v>
+        <v>-108.69</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="D99" s="0" t="n">
-        <v>44.5</v>
+        <v>56</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>-119.2</v>
+        <v>-110.1</v>
       </c>
       <c r="F99" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G99" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>51.8</v>
+        <v>59.5</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>-54.6</v>
+        <v>-57</v>
       </c>
       <c r="F100" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>70.75</v>
+        <v>78.8</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>-55</v>
+        <v>-57.5</v>
       </c>
       <c r="F101" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G101" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>-69.7</v>
+        <v>-38.5</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G102" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G102" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>106.75</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>-85</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>-69.7</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="G104" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/AudioMapperUSB-top.xlsx
+++ b/AudioMapperUSB-top.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="148">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -139,18 +139,12 @@
     <t xml:space="preserve">C28</t>
   </si>
   <si>
-    <t xml:space="preserve">C29</t>
-  </si>
-  <si>
     <t xml:space="preserve">C30</t>
   </si>
   <si>
     <t xml:space="preserve">C31</t>
   </si>
   <si>
-    <t xml:space="preserve">C32</t>
-  </si>
-  <si>
     <t xml:space="preserve">C33</t>
   </si>
   <si>
@@ -325,24 +319,18 @@
     <t xml:space="preserve">R33</t>
   </si>
   <si>
-    <t xml:space="preserve">R34</t>
+    <t xml:space="preserve">R35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R36</t>
   </si>
   <si>
     <t xml:space="preserve">4k7</t>
   </si>
   <si>
-    <t xml:space="preserve">R35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R36</t>
-  </si>
-  <si>
     <t xml:space="preserve">R38</t>
   </si>
   <si>
-    <t xml:space="preserve">R40</t>
-  </si>
-  <si>
     <t xml:space="preserve">R42</t>
   </si>
   <si>
@@ -410,12 +398,6 @@
   </si>
   <si>
     <t xml:space="preserve">R68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R70</t>
   </si>
   <si>
     <t xml:space="preserve">U1</t>
@@ -577,10 +559,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D104" activeCellId="0" sqref="D104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C93" activeCellId="0" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -697,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>47.7</v>
+        <v>46.9</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>-54.3</v>
+        <v>-54.2</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>10</v>
@@ -1180,13 +1162,13 @@
         <v>9</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>44.2</v>
+        <v>58</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>-56.4</v>
+        <v>-45.3</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>10</v>
@@ -1203,13 +1185,13 @@
         <v>9</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>58</v>
+        <v>47.4</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>-45.3</v>
+        <v>-75.1</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>10</v>
@@ -1220,19 +1202,19 @@
         <v>41</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>47.4</v>
+        <v>76.9</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>-68.5</v>
+        <v>-51</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>10</v>
@@ -1243,19 +1225,19 @@
         <v>42</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>47.4</v>
+        <v>82.9</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>-78.2</v>
+        <v>-58.7</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>10</v>
@@ -1266,19 +1248,19 @@
         <v>43</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>76.9</v>
+        <v>79.2</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>-51</v>
+        <v>-47.2</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>10</v>
@@ -1289,19 +1271,19 @@
         <v>44</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>82.9</v>
+        <v>62.4</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>-58.7</v>
+        <v>-51.5</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>10</v>
@@ -1309,19 +1291,19 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C32" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>79.2</v>
+        <v>58.6</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>-47.2</v>
+        <v>-62.8</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>180</v>
@@ -1332,19 +1314,19 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>62.4</v>
+        <v>80.7</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>-51.5</v>
+        <v>-52</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>180</v>
@@ -1355,19 +1337,19 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>58.6</v>
+        <v>77.8</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>-62.8</v>
+        <v>-62.6</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>180</v>
@@ -1378,22 +1360,22 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>80.7</v>
+        <v>61.7</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>-52</v>
+        <v>-117.7</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>10</v>
@@ -1404,19 +1386,19 @@
         <v>51</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>77.8</v>
+        <v>46.5</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>-62.6</v>
+        <v>-108.9</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>10</v>
@@ -1427,19 +1409,19 @@
         <v>52</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>61.7</v>
+        <v>112.59</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>-117.7</v>
+        <v>-86.32</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>10</v>
@@ -1450,19 +1432,19 @@
         <v>53</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>46.5</v>
+        <v>106.5</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>-108.9</v>
+        <v>-92.25</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>10</v>
@@ -1479,13 +1461,13 @@
         <v>14</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>112.59</v>
+        <v>74.4</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>-86.32</v>
+        <v>-44.3</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>10</v>
@@ -1502,13 +1484,13 @@
         <v>14</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>106.5</v>
+        <v>108.25</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>-92.25</v>
+        <v>-78.25</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>10</v>
@@ -1519,16 +1501,16 @@
         <v>56</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>74.4</v>
+        <v>123.5</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>-44.3</v>
+        <v>-42.8</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>90</v>
@@ -1539,22 +1521,22 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>108.25</v>
+        <v>104.5</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>-78.25</v>
+        <v>-46</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>10</v>
@@ -1562,22 +1544,22 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>123.5</v>
+        <v>100.1</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>-42.8</v>
+        <v>-47.3</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>10</v>
@@ -1585,19 +1567,19 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>104.5</v>
+        <v>119</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>-46</v>
+        <v>-49</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>270</v>
@@ -1608,22 +1590,22 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>100.1</v>
+        <v>120</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>-47.3</v>
+        <v>-35.5</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>10</v>
@@ -1631,22 +1613,22 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>119</v>
+        <v>112.5</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>-49</v>
+        <v>-42.5</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>10</v>
@@ -1654,22 +1636,22 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>120</v>
+        <v>119.5</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>-35.5</v>
+        <v>-42.5</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>10</v>
@@ -1677,16 +1659,16 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>72</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>112.5</v>
+        <v>116</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>-42.5</v>
@@ -1700,19 +1682,19 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>119.5</v>
+        <v>118</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>-42.5</v>
+        <v>-54.5</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>90</v>
@@ -1726,19 +1708,19 @@
         <v>75</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>116</v>
+        <v>111.5</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>-42.5</v>
+        <v>-65.2</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>10</v>
@@ -1746,22 +1728,22 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>118</v>
+        <v>123.5</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>-54.5</v>
+        <v>-49</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>10</v>
@@ -1769,19 +1751,19 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>111.5</v>
+        <v>73.65</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>-65.2</v>
+        <v>-112.43</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>0</v>
@@ -1792,22 +1774,22 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="C53" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>123.5</v>
+        <v>90.34</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>-49</v>
+        <v>-112.78</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>10</v>
@@ -1815,19 +1797,19 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>73.65</v>
+        <v>81.95</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>-112.43</v>
+        <v>-116.09</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>0</v>
@@ -1838,19 +1820,19 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>90.34</v>
+        <v>80.58</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>-112.78</v>
+        <v>-119.42</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>0</v>
@@ -1861,19 +1843,19 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>81.95</v>
+        <v>88.09</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>-116.09</v>
+        <v>-101.67</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>0</v>
@@ -1884,22 +1866,22 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>80.58</v>
+        <v>96.81</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>-119.42</v>
+        <v>-96.24</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>10</v>
@@ -1910,16 +1892,16 @@
         <v>87</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>88.09</v>
+        <v>94.22</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>-101.67</v>
+        <v>-105.1</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>0</v>
@@ -1933,19 +1915,19 @@
         <v>88</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>96.81</v>
+        <v>100.54</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>-96.24</v>
+        <v>-97.6</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>10</v>
@@ -1956,19 +1938,19 @@
         <v>89</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>94.22</v>
+        <v>54.2</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>-105.1</v>
+        <v>-49.4</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>10</v>
@@ -1976,19 +1958,19 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>100.54</v>
+        <v>53.3</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>-97.6</v>
+        <v>-76.9</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>0</v>
@@ -1999,22 +1981,22 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>54.2</v>
+        <v>85.75</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>-49.4</v>
+        <v>-123.08</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>10</v>
@@ -2022,19 +2004,19 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="C63" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>53.3</v>
+        <v>85.69</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>-76.9</v>
+        <v>-126.57</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>0</v>
@@ -2045,22 +2027,22 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>85.75</v>
+        <v>68.2</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>-123.08</v>
+        <v>-61.9</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>10</v>
@@ -2068,22 +2050,22 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>85.69</v>
+        <v>89.94</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>-126.57</v>
+        <v>-124.84</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>10</v>
@@ -2091,22 +2073,22 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>68.2</v>
+        <v>108.13</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>-61.9</v>
+        <v>-101.69</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>10</v>
@@ -2117,16 +2099,16 @@
         <v>99</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>89.94</v>
+        <v>75.2</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>-124.84</v>
+        <v>-76.3</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>90</v>
@@ -2140,19 +2122,19 @@
         <v>100</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>108.13</v>
+        <v>46.5</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>-101.69</v>
+        <v>-62.1</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>10</v>
@@ -2160,19 +2142,19 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>43.5</v>
+        <v>62.5</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>-50.6</v>
+        <v>-48</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>0</v>
@@ -2186,16 +2168,16 @@
         <v>103</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>75.2</v>
+        <v>47.3</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>-76.3</v>
+        <v>-68.2</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>90</v>
@@ -2209,19 +2191,19 @@
         <v>104</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>47.7</v>
+        <v>58.6</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>-62.1</v>
+        <v>-66.2</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>10</v>
@@ -2232,19 +2214,19 @@
         <v>105</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>62.5</v>
+        <v>89.5</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>-48</v>
+        <v>-53.1</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>10</v>
@@ -2255,16 +2237,16 @@
         <v>106</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>45.6</v>
+        <v>80.4</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>-74.3</v>
+        <v>-72.3</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>90</v>
@@ -2278,19 +2260,19 @@
         <v>107</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>49.1</v>
+        <v>68.2</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>-74.2</v>
+        <v>-58.6</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>10</v>
@@ -2301,19 +2283,19 @@
         <v>108</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>58.6</v>
+        <v>64.8</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>-66.2</v>
+        <v>-76</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>10</v>
@@ -2324,19 +2306,19 @@
         <v>109</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>89.5</v>
+        <v>80.6</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>-53.1</v>
+        <v>-49.9</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>10</v>
@@ -2344,22 +2326,22 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="C77" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>80.4</v>
+        <v>77.7</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>-72.3</v>
+        <v>-64.7</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>10</v>
@@ -2367,22 +2349,22 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>68.2</v>
+        <v>55.9</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>-58.6</v>
+        <v>-105</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>10</v>
@@ -2390,22 +2372,22 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>64.8</v>
+        <v>62.5</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>-76</v>
+        <v>-110.5</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>10</v>
@@ -2413,22 +2395,22 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>80.6</v>
+        <v>50.2</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>-49.9</v>
+        <v>-109.8</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>10</v>
@@ -2439,19 +2421,19 @@
         <v>115</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>77.7</v>
+        <v>46.5</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>-64.7</v>
+        <v>-102.1</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>10</v>
@@ -2462,19 +2444,19 @@
         <v>116</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>55.9</v>
+        <v>112.57</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>-105</v>
+        <v>-81.19</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>10</v>
@@ -2482,22 +2464,22 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>62.5</v>
+        <v>113.1</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>-110.5</v>
+        <v>-77.62</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>10</v>
@@ -2505,22 +2487,22 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>50.2</v>
+        <v>102.5</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>-109.8</v>
+        <v>-77</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>10</v>
@@ -2528,22 +2510,22 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>46.5</v>
+        <v>67.8</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>-102.1</v>
+        <v>-80</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>10</v>
@@ -2551,22 +2533,22 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>112.57</v>
+        <v>101</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>-81.19</v>
+        <v>-88.5</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>10</v>
@@ -2574,19 +2556,19 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>113.1</v>
+        <v>85.5</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>-77.62</v>
+        <v>-64.8</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>0</v>
@@ -2597,22 +2579,22 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>102.5</v>
+        <v>112.26</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>-77</v>
+        <v>-94.05</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>10</v>
@@ -2623,19 +2605,19 @@
         <v>125</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>67.8</v>
+        <v>80.6</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>-80</v>
+        <v>-108</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>10</v>
@@ -2646,19 +2628,19 @@
         <v>126</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>101</v>
+        <v>90.25</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>-88.5</v>
+        <v>-38.5</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>10</v>
@@ -2666,22 +2648,22 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>85.5</v>
+        <v>110</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>-64.8</v>
+        <v>-56</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>10</v>
@@ -2689,19 +2671,19 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>112.26</v>
+        <v>100.58</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>-94.05</v>
+        <v>-108.69</v>
       </c>
       <c r="F92" s="0" t="n">
         <v>180</v>
@@ -2712,22 +2694,22 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>80.6</v>
+        <v>56</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>-108</v>
+        <v>-110.1</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>10</v>
@@ -2735,22 +2717,22 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>44.1</v>
+        <v>59.5</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>-45.5</v>
+        <v>-57</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>10</v>
@@ -2758,22 +2740,22 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>44.7</v>
+        <v>78.8</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>-68.6</v>
+        <v>-57.5</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>10</v>
@@ -2781,22 +2763,22 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>90.25</v>
+        <v>79</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>-38.5</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>10</v>
@@ -2804,22 +2786,22 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>110</v>
+        <v>106.75</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>-56</v>
+        <v>-85</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>10</v>
@@ -2827,19 +2809,19 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>100.58</v>
+        <v>112</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>-108.69</v>
+        <v>-69.7</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>180</v>
@@ -2850,145 +2832,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="D99" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="E99" s="0" t="n">
-        <v>-110.1</v>
-      </c>
-      <c r="F99" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G99" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="D100" s="0" t="n">
-        <v>59.5</v>
-      </c>
-      <c r="E100" s="0" t="n">
-        <v>-57</v>
-      </c>
-      <c r="F100" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="D101" s="0" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="E101" s="0" t="n">
-        <v>-57.5</v>
-      </c>
-      <c r="F101" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D102" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="E102" s="0" t="n">
-        <v>-38.5</v>
-      </c>
-      <c r="F102" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G102" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
         <v>147</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D103" s="0" t="n">
-        <v>106.75</v>
-      </c>
-      <c r="E103" s="0" t="n">
-        <v>-85</v>
-      </c>
-      <c r="F103" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="G103" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="D104" s="0" t="n">
-        <v>112</v>
-      </c>
-      <c r="E104" s="0" t="n">
-        <v>-69.7</v>
-      </c>
-      <c r="F104" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G104" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
